--- a/mcmaster_excel/18-8_Stainless_Steel_Extra-Wide_Truss_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/18-8_Stainless_Steel_Extra-Wide_Truss_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,139 +434,105 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Min.Thread Lg.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Min.Thread Lg.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.131"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.037"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>91770A034</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>$10.66</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0-80</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Passivated 18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -611,12 +577,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>91770A175</t>
+          <t>91770A034</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>$10.66</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -633,7 +599,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -678,12 +644,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>91770A233</t>
+          <t>91770A175</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -700,7 +666,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -715,17 +681,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.194"</t>
+          <t>0.131"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.053"</t>
+          <t>0.037"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -745,17 +711,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>91770A752</t>
+          <t>91770A233</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>0-80</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -767,7 +733,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -812,12 +778,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>91770A071</t>
+          <t>91770A752</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -834,7 +800,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -879,12 +845,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>91770A076</t>
+          <t>91770A071</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -901,7 +867,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -946,12 +912,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>91770A073</t>
+          <t>91770A076</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -968,7 +934,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1013,12 +979,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>91770A075</t>
+          <t>91770A073</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1035,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1080,12 +1046,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>91770A077</t>
+          <t>91770A075</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1102,7 +1068,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1147,12 +1113,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>91770A078</t>
+          <t>91770A077</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1169,7 +1135,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1184,12 +1150,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.257"</t>
+          <t>0.194"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.069"</t>
+          <t>0.053"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1209,22 +1175,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>91770A319</t>
+          <t>91770A078</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1236,7 +1202,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1276,17 +1242,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>91770A090</t>
+          <t>91770A319</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1303,7 +1269,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1348,12 +1314,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>91770A092</t>
+          <t>91770A090</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1370,7 +1336,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1415,12 +1381,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>91770A095</t>
+          <t>91770A092</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1437,7 +1403,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1482,12 +1448,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>91770A108</t>
+          <t>91770A095</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1504,7 +1470,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1549,12 +1515,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>91770A851</t>
+          <t>91770A108</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1571,7 +1537,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1616,12 +1582,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>91770A096</t>
+          <t>91770A851</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1638,7 +1604,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1683,12 +1649,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>91770A011</t>
+          <t>91770A096</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1705,7 +1671,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1750,12 +1716,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>91770A113</t>
+          <t>91770A011</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1772,7 +1738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1817,12 +1783,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>91770A116</t>
+          <t>91770A113</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1839,7 +1805,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1884,12 +1850,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>91770A115</t>
+          <t>91770A116</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1906,7 +1872,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1951,12 +1917,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>91770A117</t>
+          <t>91770A115</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1973,7 +1939,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2018,12 +1984,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>91770A179</t>
+          <t>91770A117</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2040,7 +2006,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2055,12 +2021,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.289"</t>
+          <t>0.257"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.078"</t>
+          <t>0.069"</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2085,17 +2051,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>91770A124</t>
+          <t>91770A179</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>5-40</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2107,7 +2073,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2152,12 +2118,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>91770A126</t>
+          <t>91770A124</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2174,7 +2140,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2219,12 +2185,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>91770A128</t>
+          <t>91770A126</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2241,7 +2207,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2256,17 +2222,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.321"</t>
+          <t>0.289"</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.086"</t>
+          <t>0.078"</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2281,22 +2247,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>91770A344</t>
+          <t>91770A128</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>5-40</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2308,7 +2274,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2348,17 +2314,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>91770A143</t>
+          <t>91770A344</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2375,7 +2341,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2420,12 +2386,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>91770A144</t>
+          <t>91770A143</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2442,7 +2408,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2487,12 +2453,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>91770A145</t>
+          <t>91770A144</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2509,7 +2475,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2554,12 +2520,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>91770A146</t>
+          <t>91770A145</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2576,7 +2542,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2621,12 +2587,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>91770A147</t>
+          <t>91770A146</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2643,7 +2609,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2688,12 +2654,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>91770A148</t>
+          <t>91770A147</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2710,7 +2676,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2755,12 +2721,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>91770A150</t>
+          <t>91770A148</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2777,7 +2743,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2822,12 +2788,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>91770A151</t>
+          <t>91770A150</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2844,7 +2810,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2889,12 +2855,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>91770A114</t>
+          <t>91770A151</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2911,7 +2877,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2956,12 +2922,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>91770A153</t>
+          <t>91770A114</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2978,7 +2944,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3023,12 +2989,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>91770A155</t>
+          <t>91770A153</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3045,7 +3011,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3090,12 +3056,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>91770A158</t>
+          <t>91770A155</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3112,7 +3078,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3152,17 +3118,17 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>91770A160</t>
+          <t>91770A158</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3179,7 +3145,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3224,12 +3190,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>91770A162</t>
+          <t>91770A160</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3246,7 +3212,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3261,12 +3227,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.384"</t>
+          <t>0.321"</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.102"</t>
+          <t>0.086"</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3286,22 +3252,22 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>91770A188</t>
+          <t>91770A162</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3313,7 +3279,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3358,12 +3324,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>91770A190</t>
+          <t>91770A188</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3380,7 +3346,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3425,12 +3391,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>91770A191</t>
+          <t>91770A190</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3447,7 +3413,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3492,12 +3458,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>91770A192</t>
+          <t>91770A191</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3514,7 +3480,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3559,12 +3525,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>91770A193</t>
+          <t>91770A192</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3581,7 +3547,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3626,12 +3592,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>91770A194</t>
+          <t>91770A193</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3648,7 +3614,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3693,12 +3659,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>91770A196</t>
+          <t>91770A194</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3715,7 +3681,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3760,12 +3726,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>91770A197</t>
+          <t>91770A196</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3782,7 +3748,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3827,12 +3793,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>91770A198</t>
+          <t>91770A197</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3849,7 +3815,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3894,12 +3860,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>91770A199</t>
+          <t>91770A198</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11.79</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3916,7 +3882,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3961,12 +3927,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>91770A201</t>
+          <t>91770A199</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3983,7 +3949,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4023,17 +3989,17 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>91770A203</t>
+          <t>91770A201</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4050,7 +4016,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4095,12 +4061,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>91770A204</t>
+          <t>91770A203</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4117,7 +4083,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4162,12 +4128,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>91770A205</t>
+          <t>91770A204</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>10.77</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4184,7 +4150,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4229,12 +4195,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>91770A392</t>
+          <t>91770A205</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4251,7 +4217,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4296,12 +4262,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>91770A406</t>
+          <t>91770A392</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>18.38</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4318,7 +4284,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4333,12 +4299,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.448"</t>
+          <t>0.384"</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.118"</t>
+          <t>0.102"</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4358,22 +4324,22 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>91770A238</t>
+          <t>91770A406</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>8.97</t>
+          <t>18.38</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4385,7 +4351,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4430,12 +4396,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>91770A476</t>
+          <t>91770A238</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4452,7 +4418,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4497,12 +4463,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>91770A240</t>
+          <t>91770A476</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4519,7 +4485,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4564,12 +4530,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>91770A852</t>
+          <t>91770A240</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4586,7 +4552,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4631,12 +4597,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>91770A242</t>
+          <t>91770A852</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4653,7 +4619,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4698,12 +4664,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>91770A244</t>
+          <t>91770A242</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4720,7 +4686,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4765,12 +4731,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>91770A245</t>
+          <t>91770A244</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>14.90</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4787,7 +4753,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4827,17 +4793,17 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>91770A246</t>
+          <t>91770A245</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4854,7 +4820,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4899,12 +4865,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>91770A247</t>
+          <t>91770A246</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4921,7 +4887,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1 1/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4966,12 +4932,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>91770A891</t>
+          <t>91770A247</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4988,7 +4954,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1 1/8"</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5033,12 +4999,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>91770A248</t>
+          <t>91770A891</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>11.52</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5055,7 +5021,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1 3/8"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5100,12 +5066,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>91770A853</t>
+          <t>91770A248</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>11.52</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5122,7 +5088,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 3/8"</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5167,12 +5133,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>91770A251</t>
+          <t>91770A853</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5189,17 +5155,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1 5/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -5234,12 +5200,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>91770A854</t>
+          <t>91770A251</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5256,17 +5222,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 5/8"</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5301,12 +5267,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>91770A252</t>
+          <t>91770A854</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>14.20</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5323,7 +5289,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5363,17 +5329,17 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>91770A253</t>
+          <t>91770A252</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5390,17 +5356,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2 1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5435,12 +5401,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>91770A855</t>
+          <t>91770A253</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5457,7 +5423,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2 1/4"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5502,12 +5468,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>91770A259</t>
+          <t>91770A855</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5524,7 +5490,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2 3/4"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5569,12 +5535,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>91770A856</t>
+          <t>91770A259</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5591,7 +5557,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2 3/4"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5636,12 +5602,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>91770A304</t>
+          <t>91770A856</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5658,7 +5624,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3 1/2"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5698,17 +5664,17 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>91770A857</t>
+          <t>91770A304</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>12.90</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5725,7 +5691,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4"</t>
+          <t>3 1/2"</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5770,12 +5736,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>91770A858</t>
+          <t>91770A857</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5792,7 +5758,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>4 1/2"</t>
+          <t>4"</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5837,12 +5803,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>91770A859</t>
+          <t>91770A858</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5859,7 +5825,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>4 1/2"</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5904,12 +5870,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>91770A860</t>
+          <t>91770A859</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5926,17 +5892,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5966,22 +5932,22 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>91770A825</t>
+          <t>91770A860</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>8.97</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -5993,7 +5959,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6038,12 +6004,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>91770A826</t>
+          <t>91770A825</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6060,7 +6026,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6105,12 +6071,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>91770A827</t>
+          <t>91770A826</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6127,7 +6093,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6172,12 +6138,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>91770A861</t>
+          <t>91770A827</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6194,7 +6160,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6239,12 +6205,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>91770A829</t>
+          <t>91770A861</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6261,7 +6227,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6306,12 +6272,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>91770A830</t>
+          <t>91770A829</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6328,7 +6294,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6373,12 +6339,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>91770A831</t>
+          <t>91770A830</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>14.90</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6395,7 +6361,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6440,12 +6406,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>91770A478</t>
+          <t>91770A831</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6462,7 +6428,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6502,17 +6468,17 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>91770A833</t>
+          <t>91770A478</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6529,7 +6495,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1 1/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6574,12 +6540,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>91770A892</t>
+          <t>91770A833</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6596,7 +6562,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1 1/8"</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6641,12 +6607,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>91770A835</t>
+          <t>91770A892</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>11.52</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6663,7 +6629,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6708,12 +6674,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>91770A836</t>
+          <t>91770A835</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>11.52</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6730,7 +6696,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6775,12 +6741,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>91770A837</t>
+          <t>91770A836</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>14.21</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6797,7 +6763,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6837,17 +6803,17 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>91770A838</t>
+          <t>91770A837</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>14.21</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6864,7 +6830,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2 1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6909,12 +6875,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>91770A893</t>
+          <t>91770A838</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6931,17 +6897,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2 1/4"</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6976,12 +6942,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>91770A843</t>
+          <t>91770A893</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6998,7 +6964,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7043,12 +7009,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>91770A847</t>
+          <t>91770A843</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>12.91</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7065,32 +7031,32 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.511"</t>
+          <t>0.448"</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.134"</t>
+          <t>0.118"</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -7105,22 +7071,22 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>91770A797</t>
+          <t>91770A847</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>12.82</t>
+          <t>12.91</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>12-24</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -7132,7 +7098,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7172,17 +7138,17 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>91770A291</t>
+          <t>91770A797</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7199,7 +7165,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7239,17 +7205,17 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>91770A862</t>
+          <t>91770A291</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7266,7 +7232,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7306,17 +7272,17 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>91770A296</t>
+          <t>91770A862</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7333,7 +7299,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7373,17 +7339,17 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>91770A950</t>
+          <t>91770A296</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -7400,7 +7366,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7440,17 +7406,17 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>91770A894</t>
+          <t>91770A950</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7467,7 +7433,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7512,12 +7478,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>91770A863</t>
+          <t>91770A894</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -7534,17 +7500,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -7579,12 +7545,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>91770A864</t>
+          <t>91770A863</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -7601,27 +7567,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.573"</t>
+          <t>0.511"</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.134"</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7641,22 +7607,22 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>91770A568</t>
+          <t>91770A864</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>10.27</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>12-24</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -7668,7 +7634,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -7713,12 +7679,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>91770A535</t>
+          <t>91770A568</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>10.27</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -7735,7 +7701,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -7780,12 +7746,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>91770A537</t>
+          <t>91770A535</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -7802,7 +7768,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -7847,12 +7813,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>91770A539</t>
+          <t>91770A537</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -7869,7 +7835,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7914,12 +7880,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>91770A540</t>
+          <t>91770A539</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>13.62</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -7936,7 +7902,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -7976,17 +7942,17 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>91770A541</t>
+          <t>91770A540</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>13.62</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -8003,7 +7969,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8048,12 +8014,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>91770A542</t>
+          <t>91770A541</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -8070,7 +8036,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1 1/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -8115,12 +8081,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>91770A865</t>
+          <t>91770A542</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -8137,7 +8103,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1 1/8"</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8182,12 +8148,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>91770A544</t>
+          <t>91770A865</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>9.33</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8204,7 +8170,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8249,12 +8215,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>91770A546</t>
+          <t>91770A544</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>10.22</t>
+          <t>9.33</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8271,17 +8237,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1 5/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -8316,12 +8282,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>91770A866</t>
+          <t>91770A546</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>10.22</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -8338,17 +8304,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 5/8"</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -8383,12 +8349,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>91770A548</t>
+          <t>91770A866</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>12.65</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -8405,7 +8371,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -8450,12 +8416,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>91770A550</t>
+          <t>91770A548</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>11.94</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -8472,17 +8438,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2 1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -8512,17 +8478,17 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>91770A551</t>
+          <t>91770A550</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -8539,7 +8505,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2 1/4"</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -8584,12 +8550,12 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>91770A552</t>
+          <t>91770A551</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -8606,7 +8572,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2 3/4"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -8651,12 +8617,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>91770A559</t>
+          <t>91770A552</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -8673,7 +8639,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2 3/4"</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -8718,12 +8684,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>91770A554</t>
+          <t>91770A559</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -8740,7 +8706,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3 1/4"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -8785,12 +8751,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>91770A867</t>
+          <t>91770A554</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -8807,17 +8773,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3 1/2"</t>
+          <t>3 1/4"</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -8847,17 +8813,17 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>91770A582</t>
+          <t>91770A867</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -8874,17 +8840,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>4"</t>
+          <t>3 1/2"</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -8914,17 +8880,17 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>91770A562</t>
+          <t>91770A582</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -8941,7 +8907,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>4 1/2"</t>
+          <t>4"</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -8986,12 +8952,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>91770A868</t>
+          <t>91770A562</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>10.12</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -9008,7 +8974,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>4 1/2"</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -9048,17 +9014,17 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>91770A869</t>
+          <t>91770A868</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -9075,17 +9041,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>6"</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -9120,12 +9086,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>91770A592</t>
+          <t>91770A869</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -9142,7 +9108,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>6"</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -9182,22 +9148,22 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>91770A625</t>
+          <t>91770A592</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>12.93</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -9209,7 +9175,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -9254,12 +9220,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>91770A645</t>
+          <t>91770A625</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>15.12</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -9276,7 +9242,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -9321,12 +9287,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>91770A667</t>
+          <t>91770A645</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>15.12</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -9343,7 +9309,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -9383,17 +9349,17 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>91770A895</t>
+          <t>91770A667</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -9410,7 +9376,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -9455,12 +9421,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>91770A896</t>
+          <t>91770A895</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -9477,7 +9443,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -9522,12 +9488,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>91770A897</t>
+          <t>91770A896</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>11.17</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -9544,7 +9510,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -9559,17 +9525,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0.698"</t>
+          <t>0.573"</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.150"</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>No. 4</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -9584,22 +9550,22 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>91770A578</t>
+          <t>91770A897</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -9611,7 +9577,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -9656,12 +9622,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>91770A580</t>
+          <t>91770A578</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -9678,7 +9644,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -9723,12 +9689,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>91770A581</t>
+          <t>91770A580</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -9745,7 +9711,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -9790,12 +9756,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>91770A583</t>
+          <t>91770A581</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -9812,7 +9778,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -9857,12 +9823,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>91770A585</t>
+          <t>91770A583</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -9879,7 +9845,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -9924,12 +9890,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>91770A587</t>
+          <t>91770A585</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -9946,17 +9912,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -9991,12 +9957,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>91770A870</t>
+          <t>91770A587</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -10013,17 +9979,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -10058,12 +10024,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>91770A590</t>
+          <t>91770A870</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -10080,17 +10046,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2 1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -10125,12 +10091,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>91770A871</t>
+          <t>91770A590</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10147,7 +10113,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2 1/4"</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -10192,12 +10158,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>91770A594</t>
+          <t>91770A871</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -10214,7 +10180,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2 3/4"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -10259,12 +10225,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>91770A872</t>
+          <t>91770A594</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -10281,17 +10247,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2 3/4"</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -10326,12 +10292,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>91770A674</t>
+          <t>91770A872</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>13.03</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -10348,17 +10314,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>3 1/2"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -10388,17 +10354,17 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>91770A873</t>
+          <t>91770A674</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -10415,7 +10381,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>4"</t>
+          <t>3 1/2"</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -10460,12 +10426,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>91770A874</t>
+          <t>91770A873</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -10482,27 +10448,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>4"</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0.823"</t>
+          <t>0.698"</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0.215"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -10522,22 +10488,22 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>91770A649</t>
+          <t>91770A874</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -10549,7 +10515,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -10594,12 +10560,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>91770A875</t>
+          <t>91770A649</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -10616,7 +10582,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -10661,12 +10627,12 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>91770A651</t>
+          <t>91770A875</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>7.69</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -10683,7 +10649,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -10728,12 +10694,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>91770A653</t>
+          <t>91770A651</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -10750,7 +10716,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -10790,17 +10756,17 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>91770A876</t>
+          <t>91770A653</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -10817,7 +10783,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -10862,12 +10828,12 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>91770A655</t>
+          <t>91770A876</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -10884,17 +10850,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -10929,12 +10895,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>91770A877</t>
+          <t>91770A655</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -10951,17 +10917,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -10996,12 +10962,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>91770A657</t>
+          <t>91770A877</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -11018,17 +10984,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2 1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -11063,12 +11029,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>91770A878</t>
+          <t>91770A657</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -11085,7 +11051,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2 1/4"</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -11130,12 +11096,12 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>91770A879</t>
+          <t>91770A878</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -11152,7 +11118,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -11197,12 +11163,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>91770A881</t>
+          <t>91770A879</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>10.18</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -11219,7 +11185,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>4"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -11259,17 +11225,17 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>91770A883</t>
+          <t>91770A881</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>10.18</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -11286,32 +11252,32 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>4"</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0.257"</t>
+          <t>0.823"</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>0.069"</t>
+          <t>0.215"</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -11326,34 +11292,34 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>94779A300</t>
+          <t>91770A883</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>Black-Oxide 18-8 Stainless Steel</t>
+          <t>Passivated 18-8 Stainless Steel</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -11398,12 +11364,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>94779A303</t>
+          <t>94779A300</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -11420,7 +11386,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -11465,12 +11431,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>94779A306</t>
+          <t>94779A303</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>12.08</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -11487,7 +11453,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -11532,12 +11498,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>94779A309</t>
+          <t>94779A306</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>10.25</t>
+          <t>12.08</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -11554,7 +11520,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -11569,17 +11535,17 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0.321"</t>
+          <t>0.257"</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>0.086"</t>
+          <t>0.069"</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -11594,22 +11560,22 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>94779A408</t>
+          <t>94779A309</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -11621,7 +11587,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -11666,12 +11632,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>94779A410</t>
+          <t>94779A408</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -11688,7 +11654,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -11733,12 +11699,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>94779A420</t>
+          <t>94779A410</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -11755,7 +11721,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -11800,12 +11766,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>94779A430</t>
+          <t>94779A420</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -11822,7 +11788,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -11867,12 +11833,12 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>94779A450</t>
+          <t>94779A430</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -11889,7 +11855,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -11904,12 +11870,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0.384"</t>
+          <t>0.321"</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>0.102"</t>
+          <t>0.086"</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -11929,22 +11895,22 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>94779A520</t>
+          <t>94779A450</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -11956,7 +11922,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -11996,17 +11962,17 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>94779A530</t>
+          <t>94779A520</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -12023,7 +11989,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -12063,17 +12029,17 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>94779A550</t>
+          <t>94779A530</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -12090,7 +12056,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -12135,12 +12101,12 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>94779A580</t>
+          <t>94779A550</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -12157,7 +12123,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -12202,12 +12168,12 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>94779A585</t>
+          <t>94779A580</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -12224,7 +12190,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -12269,12 +12235,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>94779A590</t>
+          <t>94779A585</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -12291,7 +12257,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -12336,12 +12302,12 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>94779A595</t>
+          <t>94779A590</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -12358,7 +12324,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -12373,12 +12339,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0.448"</t>
+          <t>0.384"</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>0.128"</t>
+          <t>0.102"</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -12403,17 +12369,17 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>94779A610</t>
+          <t>94779A595</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -12425,7 +12391,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -12470,12 +12436,12 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>94779A620</t>
+          <t>94779A610</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -12492,7 +12458,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -12532,17 +12498,17 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>94779A630</t>
+          <t>94779A620</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -12559,7 +12525,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -12604,12 +12570,12 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>94779A635</t>
+          <t>94779A630</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -12626,7 +12592,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -12666,22 +12632,22 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>94779A720</t>
+          <t>94779A635</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -12693,7 +12659,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -12738,12 +12704,12 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>94779A750</t>
+          <t>94779A720</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -12760,7 +12726,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -12805,12 +12771,12 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>94779A755</t>
+          <t>94779A750</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -12827,7 +12793,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -12867,17 +12833,17 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>94779A780</t>
+          <t>94779A755</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -12894,7 +12860,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -12939,12 +12905,12 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>94779A782</t>
+          <t>94779A780</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -12961,7 +12927,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -12976,17 +12942,17 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0.573"</t>
+          <t>0.448"</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.128"</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -13006,17 +12972,17 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>94779A820</t>
+          <t>94779A782</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -13028,7 +12994,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -13073,12 +13039,12 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>94779A840</t>
+          <t>94779A820</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -13095,7 +13061,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -13140,12 +13106,12 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>94779A860</t>
+          <t>94779A840</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -13162,7 +13128,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -13207,12 +13173,12 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>94779A880</t>
+          <t>94779A860</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>12.09</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -13229,65 +13195,132 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
+          <t>1 1/4"</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.573"</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>0.150"</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>94779A880</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>Black-Oxide 18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
         <is>
           <t>0.573"</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>0.150"</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr">
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr">
+      <c r="J193" t="inlineStr">
         <is>
           <t>94779A900</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="K193" t="inlineStr">
         <is>
           <t>7.01</t>
         </is>
       </c>
-      <c r="L192" t="inlineStr">
+      <c r="L193" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr">
+      <c r="M193" t="inlineStr">
         <is>
           <t>Black-Oxide 18-8 Stainless Steel</t>
         </is>
